--- a/Requirements_template_v21.xlsx
+++ b/Requirements_template_v21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Redes-y-sensores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF74CA35-4A4E-493C-BED9-06C1344F3E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C02BCB-FE94-46CE-A55A-B54720A48F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{08996FFC-6DFD-4979-83A5-6A0947D4C718}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{08996FFC-6DFD-4979-83A5-6A0947D4C718}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="2" r:id="rId1"/>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Req ID</t>
   </si>
@@ -57,36 +60,18 @@
     <t>Sys-Fun-10</t>
   </si>
   <si>
-    <t>El sistema debe medir CO y CO2</t>
-  </si>
-  <si>
-    <t>Seguridad en el hábitat sellado</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Sys-Fun-20</t>
   </si>
   <si>
-    <t>El sensor de CO debe dar la cantidad en el habitáculo cada 10 segundos</t>
-  </si>
-  <si>
-    <t>Control del CO</t>
-  </si>
-  <si>
     <t>Sys-Fun-21</t>
   </si>
   <si>
     <t>Sys-Fun-11</t>
   </si>
   <si>
-    <t>Control del CO2</t>
-  </si>
-  <si>
-    <t>El sensor de CO2 debe dar la cantidad en el habitáculo cada 10 segundos</t>
-  </si>
-  <si>
     <t>Sys-Fun-30</t>
   </si>
   <si>
@@ -99,44 +84,246 @@
     <t>Sys-Fun-40</t>
   </si>
   <si>
-    <t>Cada dato registrado debe tener asociado un timestamp</t>
-  </si>
-  <si>
-    <t>Control de datos</t>
-  </si>
-  <si>
-    <t>El sistema debe ser capaz de almacenar y mostrar todos los datos</t>
-  </si>
-  <si>
-    <t>El sistema debe ser capaz de decir qué sensor recogió cada dato</t>
-  </si>
-  <si>
     <t>Sys-Fun-12</t>
   </si>
   <si>
-    <t>En caso de reinicio, el sensor debe ser capaz de unirse a la red de sensores</t>
-  </si>
-  <si>
-    <t>Conexión de sensores</t>
-  </si>
-  <si>
     <t>Sys-Fun-25</t>
   </si>
   <si>
-    <t>El sistema debe encender una luz roja si se supera cierto límite de CO o CO2</t>
-  </si>
-  <si>
-    <t>Control del CO,CO2</t>
-  </si>
-  <si>
-    <t>Sys-Fun-20,Sys-Fun-30</t>
+    <t>El sistema debe monitorear continuamente las condiciones ambientales y de radiación UV en la sala de plantas.</t>
+  </si>
+  <si>
+    <t>Asegurar un ambiente seguro y óptimo para el desarrollo de la vida vegetal.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-20, Sys-Fun-30, Sys-Fun-40, Sys-Fun-50, Sys-Fun-60</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sensor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BME280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> debe medir la Temperatura, Humedad y Presión atmosférica cada 5 segundos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Controlar el clima del hábitat y la integridad del sellado.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-70</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sensor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LTR390</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> debe medir el Índice UV (UVI) cada 5 segundos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Evaluar la intensidad de radiación UV para la salud de las plantas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe indicar el estado del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Bajo, Advertencia, Alerta, Crítico) usando el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LED RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> con los patrones de color y parpadeo definidos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Proporcionar una alerta visual inmediata y escalada sobre niveles de radiación.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-50</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe indicar el estado ambiental (Temp, Hum, Pres) con el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LED RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> en dos estados (Normal o Fuera de Rango), utilizando los patrones de color y parpadeo definidos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Alertar sobre condiciones ambientales que exceden los rangos de operación.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-60</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe imprimir las lecturas de todos los sensores (BME280 y LTR390) en el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>puerto serie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cada 5 segundos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Facilitar la depuración y el monitoreo local de datos en tiempo real.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada dato registrado debe tener asociado un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Garantizar la trazabilidad y el análisis de la evolución temporal de los datos.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-80</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe reportar un error claro por el puerto serie si un sensor (BME280 o LTR390) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no se detecta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> durante la inicialización.</t>
+    </r>
+  </si>
+  <si>
+    <t>Identificar fallos de hardware críticos al inicio para una intervención rápida.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +345,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1B1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -173,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -207,17 +407,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8312B-0B9F-4646-B80B-C63B8754BDB7}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,27 +768,17 @@
     <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -575,164 +786,208 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="98.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="9" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="10" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements_template_v21.xlsx
+++ b/Requirements_template_v21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Redes-y-sensores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C02BCB-FE94-46CE-A55A-B54720A48F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B751BC0-9643-4D44-87E2-C0D601CDC61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{08996FFC-6DFD-4979-83A5-6A0947D4C718}"/>
   </bookViews>
@@ -99,8 +99,17 @@
     <t>Sys-Fun-20, Sys-Fun-30, Sys-Fun-40, Sys-Fun-50, Sys-Fun-60</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">El sensor </t>
+    <t>Controlar el clima del hábitat y la integridad del sellado.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-70</t>
+  </si>
+  <si>
+    <t>Evaluar la intensidad de radiación UV para la salud de las plantas.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe indicar el estado del </t>
     </r>
     <r>
       <rPr>
@@ -110,27 +119,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>BME280</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> debe medir la Temperatura, Humedad y Presión atmosférica cada 5 segundos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Controlar el clima del hábitat y la integridad del sellado.</t>
-  </si>
-  <si>
-    <t>Sys-Fun-70</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El sensor </t>
+      <t>UVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Bajo, Advertencia, Alerta, Crítico) usando el </t>
     </r>
     <r>
       <rPr>
@@ -140,24 +138,27 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>LTR390</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> debe medir el Índice UV (UVI) cada 5 segundos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Evaluar la intensidad de radiación UV para la salud de las plantas.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El sistema debe indicar el estado del </t>
+      <t>LED RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> con los patrones de color y parpadeo definidos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Proporcionar una alerta visual inmediata y escalada sobre niveles de radiación.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-50</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe indicar el estado ambiental (Temp, Hum, Pres) con el </t>
     </r>
     <r>
       <rPr>
@@ -167,16 +168,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>UVI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Bajo, Advertencia, Alerta, Crítico) usando el </t>
+      <t>LED RGB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> en dos estados (Normal o Fuera de Rango), utilizando los patrones de color y parpadeo definidos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Alertar sobre condiciones ambientales que exceden los rangos de operación.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-60</t>
+  </si>
+  <si>
+    <t>Facilitar la depuración y el monitoreo local de datos en tiempo real.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada dato registrado debe tener asociado un </t>
     </r>
     <r>
       <rPr>
@@ -186,27 +201,36 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>LED RGB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> con los patrones de color y parpadeo definidos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Proporcionar una alerta visual inmediata y escalada sobre niveles de radiación.</t>
-  </si>
-  <si>
-    <t>Sys-Fun-50</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El sistema debe indicar el estado ambiental (Temp, Hum, Pres) con el </t>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Garantizar la trazabilidad y el análisis de la evolución temporal de los datos.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-80</t>
+  </si>
+  <si>
+    <t>Identificar fallos de hardware críticos al inicio para una intervención rápida.</t>
+  </si>
+  <si>
+    <t>El sensor debe medir la Temperatura, Humedad y Presión atmosférica cada 5 segundos.</t>
+  </si>
+  <si>
+    <t>El senso debe medir el Índice UV (UVI) cada 5 segundos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe imprimir las lecturas de todos los sensores  en el </t>
     </r>
     <r>
       <rPr>
@@ -216,27 +240,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>LED RGB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> en dos estados (Normal o Fuera de Rango), utilizando los patrones de color y parpadeo definidos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Alertar sobre condiciones ambientales que exceden los rangos de operación.</t>
-  </si>
-  <si>
-    <t>Sys-Fun-60</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El sistema debe imprimir las lecturas de todos los sensores (BME280 y LTR390) en el </t>
+      <t>puerto serie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cada 5 segundos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe reportar un error claro(de hardware) por el puerto serie si un sensor </t>
     </r>
     <r>
       <rPr>
@@ -246,63 +264,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>puerto serie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cada 5 segundos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Facilitar la depuración y el monitoreo local de datos en tiempo real.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cada dato registrado debe tener asociado un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>timestamp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Garantizar la trazabilidad y el análisis de la evolución temporal de los datos.</t>
-  </si>
-  <si>
-    <t>Sys-Fun-80</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El sistema debe reportar un error claro por el puerto serie si un sensor (BME280 o LTR390) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>no se detecta</t>
     </r>
     <r>
@@ -314,9 +275,6 @@
       </rPr>
       <t xml:space="preserve"> durante la inicialización.</t>
     </r>
-  </si>
-  <si>
-    <t>Identificar fallos de hardware críticos al inicio para una intervención rápida.</t>
   </si>
 </sst>
 </file>
@@ -428,17 +386,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +715,7 @@
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,43 +727,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -813,45 +771,45 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -859,22 +817,22 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -882,22 +840,22 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -905,45 +863,45 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -951,42 +909,42 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Requirements_template_v21.xlsx
+++ b/Requirements_template_v21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Redes-y-sensores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B751BC0-9643-4D44-87E2-C0D601CDC61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B45248-0A60-4059-B6BA-32D473FE73A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{08996FFC-6DFD-4979-83A5-6A0947D4C718}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Req ID</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Sys-Fun-20</t>
   </si>
   <si>
-    <t>Sys-Fun-21</t>
-  </si>
-  <si>
-    <t>Sys-Fun-11</t>
-  </si>
-  <si>
     <t>Sys-Fun-30</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>Sys-Fun-40</t>
   </si>
   <si>
-    <t>Sys-Fun-12</t>
-  </si>
-  <si>
-    <t>Sys-Fun-25</t>
-  </si>
-  <si>
     <t>El sistema debe monitorear continuamente las condiciones ambientales y de radiación UV en la sala de plantas.</t>
   </si>
   <si>
@@ -157,6 +145,99 @@
     <t>Sys-Fun-50</t>
   </si>
   <si>
+    <t>Alertar sobre condiciones ambientales que exceden los rangos de operación.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-60</t>
+  </si>
+  <si>
+    <t>Facilitar la depuración y el monitoreo local de datos en tiempo real.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cada dato registrado debe tener asociado un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>timestamp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Garantizar la trazabilidad y el análisis de la evolución temporal de los datos.</t>
+  </si>
+  <si>
+    <t>Sys-Fun-80</t>
+  </si>
+  <si>
+    <t>Identificar fallos de hardware críticos al inicio para una intervención rápida.</t>
+  </si>
+  <si>
+    <t>El sensor debe medir la Temperatura, Humedad y Presión atmosférica cada 5 segundos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe imprimir las lecturas de todos los sensores  en el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>puerto serie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cada 5 segundos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">El sistema debe reportar un error claro(de hardware) por el puerto serie si un sensor </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no se detecta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> durante la inicialización.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">El sistema debe indicar el estado ambiental (Temp, Hum, Pres) con el </t>
     </r>
@@ -177,104 +258,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> en dos estados (Normal o Fuera de Rango), utilizando los patrones de color y parpadeo definidos.</t>
-    </r>
-  </si>
-  <si>
-    <t>Alertar sobre condiciones ambientales que exceden los rangos de operación.</t>
-  </si>
-  <si>
-    <t>Sys-Fun-60</t>
-  </si>
-  <si>
-    <t>Facilitar la depuración y el monitoreo local de datos en tiempo real.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cada dato registrado debe tener asociado un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>timestamp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Garantizar la trazabilidad y el análisis de la evolución temporal de los datos.</t>
-  </si>
-  <si>
-    <t>Sys-Fun-80</t>
-  </si>
-  <si>
-    <t>Identificar fallos de hardware críticos al inicio para una intervención rápida.</t>
-  </si>
-  <si>
-    <t>El sensor debe medir la Temperatura, Humedad y Presión atmosférica cada 5 segundos.</t>
-  </si>
-  <si>
-    <t>El senso debe medir el Índice UV (UVI) cada 5 segundos.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El sistema debe imprimir las lecturas de todos los sensores  en el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>puerto serie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cada 5 segundos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">El sistema debe reportar un error claro(de hardware) por el puerto serie si un sensor </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>no se detecta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> durante la inicialización.</t>
-    </r>
+      <t xml:space="preserve"> en tres estados (Normal, Advertencia o Fuera de Rango), utilizando los patrones de color y parpadeo definidos.</t>
+    </r>
+  </si>
+  <si>
+    <t>El sensor debe medir el Índice UV (UVI) cada 5 segundos.</t>
   </si>
 </sst>
 </file>
@@ -714,22 +702,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8312B-0B9F-4646-B80B-C63B8754BDB7}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
     <col min="5" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -745,9 +731,6 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,86 +751,74 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
@@ -856,21 +827,18 @@
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="98.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="112.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>6</v>
@@ -879,21 +847,18 @@
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -902,41 +867,38 @@
         <v>7</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="70.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>6</v>
@@ -945,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -959,5 +921,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>